--- a/FSShortcut/Translate.xlsx
+++ b/FSShortcut/Translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\OBSShortcut\FSShortcut\FSShortcut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374225C4-885A-40F1-91D6-BBDECC288E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D36970-D173-4844-AEB8-1AC85046F09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{112F7405-5418-405D-B7D1-F99319900FDA}"/>
   </bookViews>
@@ -1135,9 +1135,6 @@
     <t>3级编辑（粗略）</t>
   </si>
   <si>
-    <t>完成网格边缘</t>
-  </si>
-  <si>
     <t>自动结合边缘【线】</t>
   </si>
   <si>
@@ -1598,6 +1595,10 @@
   </si>
   <si>
     <t>减少网格宽度</t>
+  </si>
+  <si>
+    <t>网格编辑模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2015,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE56C5CD-E400-4BBA-846B-0513B143D1D7}">
   <dimension ref="A1:L270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L16" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2257,7 +2258,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2551,7 +2552,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
@@ -2587,7 +2588,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
@@ -2596,7 +2597,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B59" t="s">
         <v>54</v>
@@ -2605,7 +2606,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
@@ -2614,7 +2615,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
@@ -2623,7 +2624,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B62" t="s">
         <v>57</v>
@@ -2632,7 +2633,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
@@ -2641,7 +2642,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B64" t="s">
         <v>59</v>
@@ -2650,7 +2651,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
@@ -2659,7 +2660,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B66" t="s">
         <v>61</v>
@@ -2668,7 +2669,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B67" t="s">
         <v>62</v>
@@ -2677,7 +2678,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B68" t="s">
         <v>63</v>
@@ -2686,7 +2687,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B69" t="s">
         <v>64</v>
@@ -2749,7 +2750,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B76" t="s">
         <v>71</v>
@@ -2794,7 +2795,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B81" t="s">
         <v>76</v>
@@ -2803,7 +2804,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B82" t="s">
         <v>77</v>
@@ -3019,7 +3020,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B106" t="s">
         <v>101</v>
@@ -3028,7 +3029,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B107" t="s">
         <v>102</v>
@@ -3037,7 +3038,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B108" t="s">
         <v>103</v>
@@ -3046,7 +3047,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B109" t="s">
         <v>104</v>
@@ -3064,7 +3065,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B111" t="s">
         <v>106</v>
@@ -3163,7 +3164,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>365</v>
+        <v>519</v>
       </c>
       <c r="B122" t="s">
         <v>117</v>
@@ -3172,7 +3173,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s">
         <v>118</v>
@@ -3181,7 +3182,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B124" t="s">
         <v>119</v>
@@ -3190,7 +3191,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s">
         <v>120</v>
@@ -3199,7 +3200,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B126" t="s">
         <v>121</v>
@@ -3208,7 +3209,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B127" t="s">
         <v>122</v>
@@ -3217,7 +3218,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s">
         <v>123</v>
@@ -3226,7 +3227,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B129" t="s">
         <v>124</v>
@@ -3235,7 +3236,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B130" t="s">
         <v>125</v>
@@ -3244,7 +3245,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B131" t="s">
         <v>126</v>
@@ -3261,7 +3262,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B133" t="s">
         <v>127</v>
@@ -3270,7 +3271,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s">
         <v>128</v>
@@ -3279,7 +3280,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B135" t="s">
         <v>129</v>
@@ -3288,7 +3289,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B136" t="s">
         <v>130</v>
@@ -3297,7 +3298,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B137" t="s">
         <v>131</v>
@@ -3306,7 +3307,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s">
         <v>132</v>
@@ -3315,7 +3316,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B139" t="s">
         <v>133</v>
@@ -3324,7 +3325,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B140" t="s">
         <v>134</v>
@@ -3333,7 +3334,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B141" t="s">
         <v>135</v>
@@ -3342,7 +3343,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B142" t="s">
         <v>136</v>
@@ -3351,7 +3352,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B143" t="s">
         <v>137</v>
@@ -3360,7 +3361,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B144" t="s">
         <v>138</v>
@@ -3369,7 +3370,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B145" t="s">
         <v>139</v>
@@ -3378,7 +3379,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B146" t="s">
         <v>140</v>
@@ -3387,7 +3388,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B147" t="s">
         <v>141</v>
@@ -3396,7 +3397,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B148" t="s">
         <v>142</v>
@@ -3405,7 +3406,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B149" t="s">
         <v>143</v>
@@ -3414,7 +3415,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B150" t="s">
         <v>144</v>
@@ -3423,7 +3424,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B151" t="s">
         <v>145</v>
@@ -3432,7 +3433,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B152" t="s">
         <v>146</v>
@@ -3441,7 +3442,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B153" t="s">
         <v>147</v>
@@ -3450,7 +3451,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B154" t="s">
         <v>148</v>
@@ -3459,7 +3460,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B155" t="s">
         <v>149</v>
@@ -3468,7 +3469,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B156" t="s">
         <v>150</v>
@@ -3477,7 +3478,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B157" t="s">
         <v>151</v>
@@ -3486,7 +3487,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B158" t="s">
         <v>152</v>
@@ -3495,7 +3496,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B159" t="s">
         <v>153</v>
@@ -3504,7 +3505,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B160" t="s">
         <v>154</v>
@@ -3521,7 +3522,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B162" t="s">
         <v>155</v>
@@ -3538,7 +3539,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B164" t="s">
         <v>156</v>
@@ -3547,7 +3548,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B165" t="s">
         <v>157</v>
@@ -3556,7 +3557,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B166" t="s">
         <v>158</v>
@@ -3565,7 +3566,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B167" t="s">
         <v>159</v>
@@ -3574,7 +3575,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B168" t="s">
         <v>160</v>
@@ -3583,7 +3584,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B169" t="s">
         <v>161</v>
@@ -3592,7 +3593,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B170" t="s">
         <v>162</v>
@@ -3609,7 +3610,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B172" t="s">
         <v>163</v>
@@ -3618,7 +3619,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B173" t="s">
         <v>164</v>
@@ -3627,7 +3628,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B174" t="s">
         <v>165</v>
@@ -3636,7 +3637,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B175" t="s">
         <v>166</v>
@@ -3645,7 +3646,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B176" t="s">
         <v>167</v>
@@ -3654,7 +3655,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B177" t="s">
         <v>168</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B178" t="s">
         <v>169</v>
@@ -3672,7 +3673,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B179" t="s">
         <v>170</v>
@@ -3681,7 +3682,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B180" t="s">
         <v>171</v>
@@ -3690,7 +3691,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B181" t="s">
         <v>172</v>
@@ -3699,7 +3700,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B182" t="s">
         <v>173</v>
@@ -3708,7 +3709,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B183" t="s">
         <v>174</v>
@@ -3717,7 +3718,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B184" t="s">
         <v>175</v>
@@ -3734,7 +3735,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B186" t="s">
         <v>176</v>
@@ -3743,7 +3744,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B187" t="s">
         <v>177</v>
@@ -3752,7 +3753,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B188" t="s">
         <v>178</v>
@@ -3761,7 +3762,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B189" t="s">
         <v>179</v>
@@ -3770,7 +3771,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B190" t="s">
         <v>180</v>
@@ -3779,7 +3780,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B191" t="s">
         <v>181</v>
@@ -3788,7 +3789,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B192" t="s">
         <v>182</v>
@@ -3797,7 +3798,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B193" t="s">
         <v>183</v>
@@ -3806,7 +3807,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B194" t="s">
         <v>184</v>
@@ -3815,7 +3816,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B195" t="s">
         <v>185</v>
@@ -3824,7 +3825,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B196" t="s">
         <v>186</v>
@@ -3833,7 +3834,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B197" t="s">
         <v>187</v>
@@ -3842,7 +3843,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B198" t="s">
         <v>188</v>
@@ -3851,7 +3852,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B199" t="s">
         <v>189</v>
@@ -3860,7 +3861,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B200" t="s">
         <v>190</v>
@@ -3869,7 +3870,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B201" t="s">
         <v>191</v>
@@ -3878,7 +3879,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B202" t="s">
         <v>192</v>
@@ -3887,7 +3888,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B203" t="s">
         <v>193</v>
@@ -3896,7 +3897,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B204" t="s">
         <v>194</v>
@@ -3905,7 +3906,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B205" t="s">
         <v>195</v>
@@ -3923,7 +3924,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B207" t="s">
         <v>197</v>
@@ -3932,7 +3933,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B208" t="s">
         <v>198</v>
@@ -3941,7 +3942,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B209" t="s">
         <v>199</v>
@@ -3950,7 +3951,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B210" t="s">
         <v>200</v>
@@ -3967,7 +3968,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B212" t="s">
         <v>201</v>
@@ -3976,7 +3977,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B213" t="s">
         <v>202</v>
@@ -3985,7 +3986,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B214" t="s">
         <v>203</v>
@@ -3994,7 +3995,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B215" t="s">
         <v>204</v>
@@ -4011,7 +4012,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B217" t="s">
         <v>205</v>
@@ -4020,7 +4021,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B218" t="s">
         <v>206</v>
@@ -4029,7 +4030,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B219" t="s">
         <v>207</v>
@@ -4038,7 +4039,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B220" t="s">
         <v>208</v>
@@ -4047,7 +4048,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B221" t="s">
         <v>209</v>
@@ -4056,7 +4057,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B222" t="s">
         <v>210</v>
@@ -4065,7 +4066,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B223" t="s">
         <v>211</v>
@@ -4074,7 +4075,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B224" t="s">
         <v>212</v>
@@ -4083,7 +4084,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B225" t="s">
         <v>213</v>
@@ -4092,7 +4093,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B226" t="s">
         <v>214</v>
@@ -4101,7 +4102,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B227" t="s">
         <v>215</v>
@@ -4110,7 +4111,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B228" t="s">
         <v>216</v>
@@ -4119,7 +4120,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B229" t="s">
         <v>217</v>
@@ -4136,7 +4137,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B231" t="s">
         <v>218</v>
@@ -4145,7 +4146,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B232" t="s">
         <v>219</v>
@@ -4154,7 +4155,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B233" t="s">
         <v>220</v>
@@ -4163,7 +4164,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B234" t="s">
         <v>221</v>
@@ -4180,7 +4181,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B236" t="s">
         <v>222</v>
@@ -4189,7 +4190,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B237" t="s">
         <v>223</v>
@@ -4198,7 +4199,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B238" t="s">
         <v>224</v>
@@ -4207,7 +4208,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B239" t="s">
         <v>225</v>
@@ -4224,7 +4225,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B241" t="s">
         <v>226</v>
@@ -4233,7 +4234,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B242" t="s">
         <v>227</v>
@@ -4242,7 +4243,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B243" t="s">
         <v>228</v>
@@ -4251,7 +4252,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B244" t="s">
         <v>229</v>
@@ -4260,7 +4261,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B245" t="s">
         <v>230</v>
@@ -4269,7 +4270,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B246" t="s">
         <v>231</v>
@@ -4278,7 +4279,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B247" t="s">
         <v>232</v>
@@ -4295,7 +4296,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B249" t="s">
         <v>233</v>
@@ -4304,7 +4305,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B250" t="s">
         <v>234</v>
@@ -4313,7 +4314,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B251" t="s">
         <v>235</v>
@@ -4322,7 +4323,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B252" t="s">
         <v>236</v>
@@ -4331,7 +4332,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B253" t="s">
         <v>237</v>
@@ -4340,7 +4341,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B254" t="s">
         <v>238</v>
@@ -4349,7 +4350,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B255" t="s">
         <v>239</v>
@@ -4358,7 +4359,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B256" t="s">
         <v>240</v>
@@ -4367,7 +4368,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B257" t="s">
         <v>241</v>
@@ -4376,7 +4377,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B258" t="s">
         <v>242</v>
@@ -4385,7 +4386,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B259" t="s">
         <v>243</v>
@@ -4394,7 +4395,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B260" t="s">
         <v>244</v>
@@ -4403,7 +4404,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B261" t="s">
         <v>245</v>
@@ -4420,7 +4421,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B263" t="s">
         <v>246</v>
@@ -4429,7 +4430,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B264" t="s">
         <v>247</v>
@@ -4438,7 +4439,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B265" t="s">
         <v>248</v>
@@ -4447,7 +4448,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B266" t="s">
         <v>249</v>
@@ -4456,7 +4457,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B267" t="s">
         <v>250</v>
@@ -4465,7 +4466,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B268" t="s">
         <v>251</v>
@@ -4474,7 +4475,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B269" t="s">
         <v>252</v>
@@ -4483,7 +4484,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B270" t="s">
         <v>253</v>
